--- a/src/main/resources/excel/good/equipment.xlsx
+++ b/src/main/resources/excel/good/equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BBBFA5-6417-4AA7-A8E7-810D4B54AB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FC67CB-38BA-4E26-9431-2A898CB188E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4116" yWindow="2364" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>durable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxStacks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,21 +482,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="49.33203125" customWidth="1"/>
-    <col min="19" max="20" width="29.33203125" customWidth="1"/>
+    <col min="4" max="6" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="49.33203125" customWidth="1"/>
+    <col min="20" max="21" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,49 +510,52 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -562,11 +569,11 @@
         <v>15</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>300</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -577,34 +584,37 @@
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>100</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>120</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>0.1</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.2</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
@@ -618,17 +628,17 @@
         <v>21</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>300</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>50</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>60</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -651,16 +661,19 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>10</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>102</v>
       </c>
@@ -674,17 +687,17 @@
         <v>20</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>300</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>80</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -707,16 +720,19 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>20</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>30</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>103</v>
       </c>
@@ -730,17 +746,17 @@
         <v>22</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>300</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>60</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>80</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -763,16 +779,19 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>20</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>104</v>
       </c>
@@ -785,15 +804,18 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>40</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
@@ -816,12 +838,15 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/main/resources/excel/good/equipment.xlsx
+++ b/src/main/resources/excel/good/equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BBBFA5-6417-4AA7-A8E7-810D4B54AB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43053542-3682-4698-AD1C-6B1F620B7782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4116" yWindow="2364" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,6 +785,9 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
       <c r="F6">
         <v>30</v>
       </c>

--- a/src/main/resources/excel/good/equipment.xlsx
+++ b/src/main/resources/excel/good/equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43053542-3682-4698-AD1C-6B1F620B7782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7618876E-1A2D-4BCE-B2FC-6ADB8FA29016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="1248" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,134 +25,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMagicPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCriticalRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minCriticalRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈的剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一把很普通的剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凑合着用，不被爆头就可以了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈的胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望人没事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>破烂的帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破烂的裤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破烂的鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能用就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能穿就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minMagicPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minMp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMagicPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxCriticalRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minCriticalRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minDefense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxDefense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生锈的剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一把很普通的剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凑合着用，不被爆头就可以了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生锈的胸甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望人没事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coat</t>
-  </si>
-  <si>
-    <t>hat</t>
-  </si>
-  <si>
-    <t>pants</t>
-  </si>
-  <si>
-    <t>破烂的帽子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破烂的裤子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破烂的鞋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shoe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能用就行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能穿就行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minMagicPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable</t>
+    <t>goodId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,157 +482,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="49.33203125" customWidth="1"/>
-    <col min="19" max="20" width="29.33203125" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="49.33203125" customWidth="1"/>
+    <col min="20" max="21" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
       </c>
       <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
+      <c r="S1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>120</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>120</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.1</v>
-      </c>
-      <c r="O2">
-        <v>0.2</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
         <v>300</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>50</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>60</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -651,96 +661,102 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>10</v>
       </c>
-      <c r="R3" t="s">
-        <v>17</v>
+      <c r="S3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4">
-        <v>80</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>20</v>
-      </c>
-      <c r="Q4">
-        <v>30</v>
-      </c>
-      <c r="R4" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>103</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
         <v>300</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>60</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>80</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -763,69 +779,75 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>20</v>
       </c>
-      <c r="R5" t="s">
-        <v>28</v>
+      <c r="S5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6">
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/good/equipment.xlsx
+++ b/src/main/resources/excel/good/equipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7618876E-1A2D-4BCE-B2FC-6ADB8FA29016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CB0C6D-5FF4-4DEE-995D-89A1504F2B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4896" yWindow="1248" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9336" yWindow="3288" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>goodId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,21 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="6" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="49.33203125" customWidth="1"/>
-    <col min="20" max="21" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="49.33203125" customWidth="1"/>
+    <col min="21" max="22" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -552,10 +556,13 @@
         <v>12</v>
       </c>
       <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -610,11 +617,14 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="T2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
@@ -669,11 +679,14 @@
       <c r="R3">
         <v>10</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3">
+        <v>100</v>
+      </c>
+      <c r="T3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>102</v>
       </c>
@@ -728,11 +741,14 @@
       <c r="R4">
         <v>30</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>103</v>
       </c>
@@ -787,11 +803,14 @@
       <c r="R5">
         <v>20</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>104</v>
       </c>
@@ -846,7 +865,10 @@
       <c r="R6">
         <v>10</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/src/main/resources/excel/good/equipment.xlsx
+++ b/src/main/resources/excel/good/equipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CB0C6D-5FF4-4DEE-995D-89A1504F2B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7914FB-0013-4A8A-A5F4-1951E24D3E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9336" yWindow="3288" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12852" yWindow="4260" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,61 +106,62 @@
     <t>coat</t>
   </si>
   <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>破烂的帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破烂的裤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破烂的鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能用就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能穿就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minMagicPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hat</t>
-  </si>
-  <si>
-    <t>pants</t>
-  </si>
-  <si>
-    <t>破烂的帽子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破烂的裤子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破烂的鞋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shoe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能用就行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能穿就行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minMagicPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,22 +503,22 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -538,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>
@@ -556,10 +557,10 @@
         <v>12</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -632,13 +633,13 @@
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>300</v>
@@ -756,13 +757,13 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>300</v>
@@ -807,7 +808,7 @@
         <v>100</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -818,13 +819,13 @@
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>300</v>
@@ -869,7 +870,7 @@
         <v>100</v>
       </c>
       <c r="T6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
